--- a/src/resources/online_test_sheet.xlsx
+++ b/src/resources/online_test_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="69">
   <si>
     <t>Password</t>
   </si>
@@ -2459,22 +2459,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2482,22 +2482,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2505,22 +2505,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2528,22 +2528,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2551,22 +2551,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2574,22 +2574,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2597,22 +2597,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2620,22 +2620,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -2643,22 +2643,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -2666,22 +2666,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>

--- a/src/resources/online_test_sheet.xlsx
+++ b/src/resources/online_test_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="student_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="97">
   <si>
     <t>Password</t>
   </si>
@@ -227,6 +227,90 @@
   </si>
   <si>
     <t>The power house of Cell is called12?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c1?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c2?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c3?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c4?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c5?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c6?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c7?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c8?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c9?</t>
+  </si>
+  <si>
+    <t>if a = 10, b = 15, result = 30, a + b + = 30, value of c10?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type1?</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type2?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type3?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type4?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type5?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type6?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type7?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type8?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type9?</t>
+  </si>
+  <si>
+    <t>Which is not a primitive data type10?</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1120,11 +1204,11 @@
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.0</v>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1274,11 +1358,11 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2052,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="10" sqref="A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A9:XFD9 A10:XFD10 A11:XFD11 A12:XFD12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,6 +2172,206 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2097,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2377,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,6 +2695,206 @@
       </c>
       <c r="G1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2459,22 +2943,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2482,22 +2966,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2505,22 +2989,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2528,22 +3012,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2551,22 +3035,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2574,22 +3058,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2597,22 +3081,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2620,22 +3104,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -2643,22 +3127,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -2666,22 +3150,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
